--- a/data/trans_dic/P31_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>21,16%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21,97%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 20,1</t>
+          <t>13,07; 20,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,26; 21,63</t>
+          <t>15,09; 21,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,36; 23,47</t>
+          <t>15,0; 23,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 21,31</t>
+          <t>15,2; 21,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 25,12</t>
+          <t>15,68; 22,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,4; 34,23</t>
+          <t>10,85; 17,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,65; 27,83</t>
+          <t>19,14; 25,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,95; 31,92</t>
+          <t>26,97; 33,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 21,51</t>
+          <t>22,24; 28,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,45; 27,08</t>
+          <t>25,11; 32,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,61; 24,15</t>
+          <t>25,34; 32,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,05; 25,82</t>
+          <t>17,87; 25,24</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 21,72</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,14; 26,4</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>19,56; 24,72</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>21,12; 25,84</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 26,59</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>15,42; 20,07</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>29,24%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28,53%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,24; 28,31</t>
+          <t>15,44; 26,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,57; 27,94</t>
+          <t>18,72; 26,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,43; 26,55</t>
+          <t>17,17; 26,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 26,42</t>
+          <t>15,63; 26,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,07; 31,04</t>
+          <t>16,21; 26,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,14; 38,84</t>
+          <t>11,42; 18,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,46; 33,82</t>
+          <t>23,04; 31,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,52; 41,14</t>
+          <t>30,75; 38,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,55; 28,09</t>
+          <t>26,18; 34,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,3; 32,21</t>
+          <t>27,39; 41,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 28,29</t>
+          <t>23,32; 37,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,62; 31,41</t>
+          <t>24,83; 34,4</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 27,57</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>26,01; 31,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 28,41</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 31,71</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 29,7</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 25,27</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>43,79%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34,43%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>27,46%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>36,12%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>27,94%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>25,94%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 39,71</t>
+          <t>15,48; 38,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,81; 38,76</t>
+          <t>21,29; 39,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 24,76</t>
+          <t>11,81; 24,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,01; 37,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,87; 52,84</t>
+          <t>13,97; 33,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,19; 41,22</t>
+          <t>24,47; 40,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>36,07; 51,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27,11; 42,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>21,33; 35,1</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>30,3; 42,1</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,32; 30,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>16,21; 32,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>22,23; 36,11</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 41,76</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20,83; 31,07</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>17,13; 29,94</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>24,55%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,18%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 22,96</t>
+          <t>16,06; 22,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 24,42</t>
+          <t>18,89; 23,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,37</t>
+          <t>16,64; 22,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,28</t>
+          <t>16,09; 21,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,22; 27,01</t>
+          <t>16,93; 22,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,38; 36,26</t>
+          <t>12,91; 18,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,25; 29,61</t>
+          <t>22,8; 27,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 32,56</t>
+          <t>30,71; 35,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,44; 24,28</t>
+          <t>25,5; 30,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,08; 29,6</t>
+          <t>26,44; 32,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 25,2</t>
+          <t>26,31; 32,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,15; 26,34</t>
+          <t>22,19; 27,79</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 24,13</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>25,57; 29,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>21,92; 25,57</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 26,08</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>22,22; 26,22</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 21,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>268650</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>296929</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>302970</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>40941</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40509</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>227803</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>405570</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>544676</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>457900</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>67123</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65415</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>382191</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>674220</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>841605</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>760870</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>108064</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>105924</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>609995</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>215986; 330887</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>248637; 347490</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>246770; 380619</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34482; 48017</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>33712; 48617</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>178143; 281328</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>346384; 468304</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>493179; 605866</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>404432; 511281</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59201; 75984</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57326; 72613</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>322845; 455869</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>591764; 752012</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>769523; 917842</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>677598; 856451</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>97704; 119535</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>95868; 117321</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>531648; 691792</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>338.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>279028</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>310405</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>291417</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15124</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14882</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>202695</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>378096</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>475185</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>409179</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21734</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18536</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>407755</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>657124</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>785589</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>700596</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>36857</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>33418</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>610450</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>212171; 361018</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>258106; 371654</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>237140; 360498</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11296; 19177</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11446; 18995</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>158142; 257103</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>320597; 436667</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>422537; 524014</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>361855; 470717</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17654; 26832</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14800; 23495</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>346277; 479761</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>570227; 762590</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>716126; 863839</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>617610; 785014</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>31125; 43364</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>28041; 39811</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>534070; 702388</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>100535</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>120871</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>74708</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>91252</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>132668</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>179342</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>141799</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97144</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>233203</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>300213</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>216507</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>188396</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65439; 163383</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>90001; 168064</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49916; 105392</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>59056; 142739</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>100793; 167765</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>147732; 209941</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>111653; 173475</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>66760; 135638</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>185594; 301415</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>247212; 347586</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>173860; 259383</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>142945; 249953</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>832.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>717.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>492.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>648212</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>728205</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>669095</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>56064</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55391</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>521750</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>916335</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1199203</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1008878</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>88857</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>83951</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>887090</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1564547</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1927407</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1677973</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>144921</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>139342</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1408841</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>553920; 760784</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>651462; 819288</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>574074; 766711</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48135; 63766</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48342; 63750</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>445317; 622407</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>823699; 1003546</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1109440; 1287234</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>921223; 1090620</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>79371; 97269</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>76220; 93508</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>801672; 1003921</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1435923; 1704071</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1805641; 2052084</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1548202; 1806062</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>133811; 156275</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>127838; 150811</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1292070; 1550854</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
